--- a/src/test/resources/testfiles/upload/Product_Documents.xlsx
+++ b/src/test/resources/testfiles/upload/Product_Documents.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praveen\Desktop\New folder (9)\19 cms document files files\New folder\doc-upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB9A6C7-91BB-4384-A4B9-503CEDD3BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB69B620-40F8-4475-8B66-7301169C5669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="817" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Documents" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,119 +32,119 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
+    <t>Product Reference No.</t>
+  </si>
+  <si>
     <t>Filename</t>
   </si>
   <si>
+    <t>Prod Ref KK-001</t>
+  </si>
+  <si>
     <t>File -01.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-002</t>
+  </si>
+  <si>
     <t>File -02.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-003</t>
+  </si>
+  <si>
     <t>File -03.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-004</t>
+  </si>
+  <si>
     <t>File -04.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-005</t>
+  </si>
+  <si>
     <t>File -05.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-006</t>
+  </si>
+  <si>
     <t>File -06.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-007</t>
+  </si>
+  <si>
     <t>File -07.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-008</t>
+  </si>
+  <si>
     <t>File -08.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-009</t>
+  </si>
+  <si>
     <t>File -09.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-010</t>
+  </si>
+  <si>
     <t>File -10.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-011</t>
+  </si>
+  <si>
     <t>File -11.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-012</t>
+  </si>
+  <si>
     <t>File -12.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-013</t>
+  </si>
+  <si>
     <t>File -13.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-014</t>
+  </si>
+  <si>
     <t>File -14.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-015</t>
+  </si>
+  <si>
     <t>File -15.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-016</t>
+  </si>
+  <si>
     <t>File -16.xlsx</t>
   </si>
   <si>
+    <t>Prod Ref KK-017</t>
+  </si>
+  <si>
     <t>File -17.xlsx</t>
-  </si>
-  <si>
-    <t>Product Reference No.</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-7707</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-7052</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13691</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13692</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13693</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13694</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13695</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13696</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13697</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13698</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13699</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13700</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8095</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8096</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8098</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8099</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +173,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,12 +194,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -199,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,158 +509,158 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="16.5">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="16.5">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="16.5">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="16.5">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="16.5">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="16.5">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="16.5">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="16.5">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testfiles/upload/Product_Documents.xlsx
+++ b/src/test/resources/testfiles/upload/Product_Documents.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praveen\Desktop\New folder (9)\19 cms document files files\New folder\doc-upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB9A6C7-91BB-4384-A4B9-503CEDD3BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB69B620-40F8-4475-8B66-7301169C5669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="817" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Documents" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,62 +80,62 @@
     <t>Product Reference No.</t>
   </si>
   <si>
-    <t>Prod Ref QA-7707</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-7052</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13691</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13692</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13693</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13694</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13695</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13696</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13697</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13698</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13699</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-13700</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8095</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8096</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8098</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8099</t>
-  </si>
-  <si>
-    <t>Prod Ref QA-8100</t>
+    <t>Prod Ref KK-001</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-002</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-003</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-004</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-005</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-006</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-007</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-008</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-009</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-010</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-011</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-012</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-013</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-014</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-015</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-016</t>
+  </si>
+  <si>
+    <t>Prod Ref KK-017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +164,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,12 +185,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -199,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +500,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -509,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -517,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -525,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -533,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -541,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -549,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -557,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -565,7 +582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -573,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -581,7 +598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -589,7 +606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -597,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -605,7 +622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -613,7 +630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -621,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -629,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
